--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
@@ -531,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.873501</v>
+        <v>7.292394999999999</v>
       </c>
       <c r="H2">
-        <v>2.620503</v>
+        <v>21.877185</v>
       </c>
       <c r="I2">
-        <v>0.1166943280075418</v>
+        <v>0.5244715940033005</v>
       </c>
       <c r="J2">
-        <v>0.1166943280075418</v>
+        <v>0.5244715940033005</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,28 +549,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.873501</v>
+        <v>7.292394999999999</v>
       </c>
       <c r="N2">
-        <v>2.620503</v>
+        <v>21.877185</v>
       </c>
       <c r="O2">
-        <v>0.1166943280075418</v>
+        <v>0.5244715940033005</v>
       </c>
       <c r="P2">
-        <v>0.1166943280075418</v>
+        <v>0.5244715940033005</v>
       </c>
       <c r="Q2">
-        <v>0.763003997001</v>
+        <v>53.17902483602499</v>
       </c>
       <c r="R2">
-        <v>6.867035973008999</v>
+        <v>478.6112235242249</v>
       </c>
       <c r="S2">
-        <v>0.01361756618913175</v>
+        <v>0.2750704529163628</v>
       </c>
       <c r="T2">
-        <v>0.01361756618913175</v>
+        <v>0.2750704529163628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.873501</v>
+        <v>7.292394999999999</v>
       </c>
       <c r="H3">
-        <v>2.620503</v>
+        <v>21.877185</v>
       </c>
       <c r="I3">
-        <v>0.1166943280075418</v>
+        <v>0.5244715940033005</v>
       </c>
       <c r="J3">
-        <v>0.1166943280075418</v>
+        <v>0.5244715940033005</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +617,22 @@
         <v>0.9819960000000001</v>
       </c>
       <c r="O3">
-        <v>0.04372952953158002</v>
+        <v>0.02354183170388992</v>
       </c>
       <c r="P3">
-        <v>0.04372952953158002</v>
+        <v>0.02354183170388992</v>
       </c>
       <c r="Q3">
-        <v>0.285924829332</v>
+        <v>2.38703424014</v>
       </c>
       <c r="R3">
-        <v>2.573323463988</v>
+        <v>21.48330816126</v>
       </c>
       <c r="S3">
-        <v>0.005102988062773685</v>
+        <v>0.01234702199949658</v>
       </c>
       <c r="T3">
-        <v>0.005102988062773685</v>
+        <v>0.01234702199949658</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.873501</v>
+        <v>7.292394999999999</v>
       </c>
       <c r="H4">
-        <v>2.620503</v>
+        <v>21.877185</v>
       </c>
       <c r="I4">
-        <v>0.1166943280075418</v>
+        <v>0.5244715940033005</v>
       </c>
       <c r="J4">
-        <v>0.1166943280075418</v>
+        <v>0.5244715940033005</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,22 +679,22 @@
         <v>18.853631</v>
       </c>
       <c r="O4">
-        <v>0.8395761424608782</v>
+        <v>0.4519865742928097</v>
       </c>
       <c r="P4">
-        <v>0.8395761424608781</v>
+        <v>0.4519865742928096</v>
       </c>
       <c r="Q4">
-        <v>5.489555177377</v>
+        <v>45.82937481208166</v>
       </c>
       <c r="R4">
-        <v>49.405996596393</v>
+        <v>412.4643733087349</v>
       </c>
       <c r="S4">
-        <v>0.09797377375563636</v>
+        <v>0.2370541190874411</v>
       </c>
       <c r="T4">
-        <v>0.09797377375563635</v>
+        <v>0.237054119087441</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.9819960000000001</v>
       </c>
       <c r="I5">
-        <v>0.04372952953158002</v>
+        <v>0.02354183170388992</v>
       </c>
       <c r="J5">
-        <v>0.04372952953158002</v>
+        <v>0.02354183170388992</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -735,28 +735,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.873501</v>
+        <v>7.292394999999999</v>
       </c>
       <c r="N5">
-        <v>2.620503</v>
+        <v>21.877185</v>
       </c>
       <c r="O5">
-        <v>0.1166943280075418</v>
+        <v>0.5244715940033005</v>
       </c>
       <c r="P5">
-        <v>0.1166943280075418</v>
+        <v>0.5244715940033005</v>
       </c>
       <c r="Q5">
-        <v>0.285924829332</v>
+        <v>2.38703424014</v>
       </c>
       <c r="R5">
-        <v>2.573323463988</v>
+        <v>21.48330816126</v>
       </c>
       <c r="S5">
-        <v>0.005102988062773685</v>
+        <v>0.01234702199949658</v>
       </c>
       <c r="T5">
-        <v>0.005102988062773685</v>
+        <v>0.01234702199949658</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>0.9819960000000001</v>
       </c>
       <c r="I6">
-        <v>0.04372952953158002</v>
+        <v>0.02354183170388992</v>
       </c>
       <c r="J6">
-        <v>0.04372952953158002</v>
+        <v>0.02354183170388992</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,10 +803,10 @@
         <v>0.9819960000000001</v>
       </c>
       <c r="O6">
-        <v>0.04372952953158002</v>
+        <v>0.02354183170388992</v>
       </c>
       <c r="P6">
-        <v>0.04372952953158002</v>
+        <v>0.02354183170388992</v>
       </c>
       <c r="Q6">
         <v>0.107146238224</v>
@@ -815,10 +815,10 @@
         <v>0.9643161440160002</v>
       </c>
       <c r="S6">
-        <v>0.001912271753053329</v>
+        <v>0.0005542178399742768</v>
       </c>
       <c r="T6">
-        <v>0.001912271753053329</v>
+        <v>0.0005542178399742768</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>0.9819960000000001</v>
       </c>
       <c r="I7">
-        <v>0.04372952953158002</v>
+        <v>0.02354183170388992</v>
       </c>
       <c r="J7">
-        <v>0.04372952953158002</v>
+        <v>0.02354183170388992</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,10 +865,10 @@
         <v>18.853631</v>
       </c>
       <c r="O7">
-        <v>0.8395761424608782</v>
+        <v>0.4519865742928097</v>
       </c>
       <c r="P7">
-        <v>0.8395761424608781</v>
+        <v>0.4519865742928096</v>
       </c>
       <c r="Q7">
         <v>2.057132247497333</v>
@@ -877,10 +877,10 @@
         <v>18.514190227476</v>
       </c>
       <c r="S7">
-        <v>0.03671426971575301</v>
+        <v>0.01064059186441907</v>
       </c>
       <c r="T7">
-        <v>0.036714269715753</v>
+        <v>0.01064059186441906</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,10 +909,10 @@
         <v>18.853631</v>
       </c>
       <c r="I8">
-        <v>0.8395761424608782</v>
+        <v>0.4519865742928097</v>
       </c>
       <c r="J8">
-        <v>0.8395761424608781</v>
+        <v>0.4519865742928096</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -921,28 +921,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.873501</v>
+        <v>7.292394999999999</v>
       </c>
       <c r="N8">
-        <v>2.620503</v>
+        <v>21.877185</v>
       </c>
       <c r="O8">
-        <v>0.1166943280075418</v>
+        <v>0.5244715940033005</v>
       </c>
       <c r="P8">
-        <v>0.1166943280075418</v>
+        <v>0.5244715940033005</v>
       </c>
       <c r="Q8">
-        <v>5.489555177377</v>
+        <v>45.82937481208166</v>
       </c>
       <c r="R8">
-        <v>49.405996596393</v>
+        <v>412.4643733087349</v>
       </c>
       <c r="S8">
-        <v>0.09797377375563636</v>
+        <v>0.2370541190874411</v>
       </c>
       <c r="T8">
-        <v>0.09797377375563635</v>
+        <v>0.237054119087441</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,10 +971,10 @@
         <v>18.853631</v>
       </c>
       <c r="I9">
-        <v>0.8395761424608782</v>
+        <v>0.4519865742928097</v>
       </c>
       <c r="J9">
-        <v>0.8395761424608781</v>
+        <v>0.4519865742928096</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,10 +989,10 @@
         <v>0.9819960000000001</v>
       </c>
       <c r="O9">
-        <v>0.04372952953158002</v>
+        <v>0.02354183170388992</v>
       </c>
       <c r="P9">
-        <v>0.04372952953158002</v>
+        <v>0.02354183170388992</v>
       </c>
       <c r="Q9">
         <v>2.057132247497333</v>
@@ -1001,10 +1001,10 @@
         <v>18.514190227476</v>
       </c>
       <c r="S9">
-        <v>0.03671426971575301</v>
+        <v>0.01064059186441907</v>
       </c>
       <c r="T9">
-        <v>0.036714269715753</v>
+        <v>0.01064059186441906</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,10 +1033,10 @@
         <v>18.853631</v>
       </c>
       <c r="I10">
-        <v>0.8395761424608782</v>
+        <v>0.4519865742928097</v>
       </c>
       <c r="J10">
-        <v>0.8395761424608781</v>
+        <v>0.4519865742928096</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,10 +1051,10 @@
         <v>18.853631</v>
       </c>
       <c r="O10">
-        <v>0.8395761424608782</v>
+        <v>0.4519865742928097</v>
       </c>
       <c r="P10">
-        <v>0.8395761424608781</v>
+        <v>0.4519865742928096</v>
       </c>
       <c r="Q10">
         <v>39.49548909824011</v>
@@ -1063,10 +1063,10 @@
         <v>355.459401884161</v>
       </c>
       <c r="S10">
-        <v>0.7048880989894888</v>
+        <v>0.2042918633409496</v>
       </c>
       <c r="T10">
-        <v>0.7048880989894887</v>
+        <v>0.2042918633409495</v>
       </c>
     </row>
   </sheetData>
